--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9874,7 +9875,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -9906,7 +9906,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -9938,7 +9937,6 @@
           <t>东吴行业轮动混合C</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>85.54</t>
@@ -9970,7 +9968,6 @@
           <t>光大阳光混合C</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>94.76</t>
@@ -9986,6 +9983,5822 @@
       </c>
       <c r="H182" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.3471</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>64.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2201</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.1526</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.9030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.7909</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6191</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1816</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7610</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5590</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4304</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3907</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3105</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2724</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2624</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0573</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9966</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9622</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7484</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7230</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6842</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6191</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5328</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006198</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长盛龙头双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15804,4 +15805,4004 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7911</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4909</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3399</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9504</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7333</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6853</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>55.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5705</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1740</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1294</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0996</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8924</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8104</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7184</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2975</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>50.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19805,4 +19806,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>152</v>
+      </c>
+      <c r="D3" t="n">
+        <v>116.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>112.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19814,7 +19815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19825,17 +19826,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19845,14 +19866,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.91</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -19861,14 +19904,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>152</v>
-      </c>
-      <c r="D3" t="n">
-        <v>116.38</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -19877,14 +19942,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>181</v>
-      </c>
-      <c r="D4" t="n">
-        <v>112.67</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -19893,13 +19980,4745 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6524</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.5167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1670</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1545</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1347</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.9216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8588</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.7605</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6687</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.3623</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8875</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8489</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8374</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5755</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3908</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3470</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2787</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2113</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0480</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9739</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9727</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9539</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8102</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6827</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6431</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6284</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>57.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>152</v>
+      </c>
+      <c r="D4" t="n">
+        <v>116.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>112.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>55.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24617,7 +24618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24628,17 +24629,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24648,14 +24669,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>105.89</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -24664,14 +24707,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>104</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.91</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -24680,14 +24745,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>152</v>
-      </c>
-      <c r="D4" t="n">
-        <v>116.38</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -24696,14 +24783,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>181</v>
-      </c>
-      <c r="D5" t="n">
-        <v>112.67</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -24712,13 +24821,2065 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7771</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>181</v>
+      </c>
+      <c r="D6" t="n">
+        <v>112.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>55.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26762,7 +26763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26773,17 +26774,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26793,14 +26814,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.42</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3275</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -26809,14 +26852,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105.89</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -26825,14 +26890,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>104</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.91</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3264</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -26841,14 +26928,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>152</v>
-      </c>
-      <c r="D5" t="n">
-        <v>116.38</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -26857,14 +26966,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>181</v>
-      </c>
-      <c r="D6" t="n">
-        <v>112.67</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -26873,13 +27004,2231 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9121</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8744</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7399</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>970094</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970093</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>970095</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>152</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>181</v>
+      </c>
+      <c r="D7" t="n">
+        <v>112.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>55.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
+++ b/数据整理/stocks/A股/创业板/300408-三环集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>27.79</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>27.42</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>105.89</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
-        <v>74.91</v>
+        <v>105.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>116.38</v>
+        <v>74.91</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D7" t="n">
-        <v>112.67</v>
+        <v>116.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>112.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>55.06</v>
       </c>
     </row>
@@ -600,6 +617,2832 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7918</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2931,7 +5774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5075,7 +7918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9877,7 +12720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13877,7 +16720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19693,7 +22536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26599,7 +29442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
